--- a/results/DT/125Hz_2classes/res_hyperopt.xlsx
+++ b/results/DT/125Hz_2classes/res_hyperopt.xlsx
@@ -477,7 +477,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>{'max_depth': 21, 'max_features': 0.5656594844401761, 'min_samples_leaf': 0.001057537146856774, 'min_samples_split': 0.06750545216225555}</t>
+          <t>{'max_depth': 77, 'max_features': 0.5574414005139907, 'min_samples_leaf': 0.0011302943560319925, 'min_samples_split': 0.06277410612268235}</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -503,12 +503,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>{'max_depth': 73, 'max_features': 0.35444271074036454, 'min_samples_leaf': 0.009772891148243638, 'min_samples_split': 0.04208199384907967}</t>
+          <t>{'max_depth': 40, 'max_features': 0.35660202996887774, 'min_samples_leaf': 0.010074538041181283, 'min_samples_split': 0.05756249399732902}</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>{'mean_10_25': 0.095, 'std_class_10_25': 0.086, 'var_10_25': 0.15, 'max_10_50': 0.006, 'mean_25_75': 0.103, 'skew_25_75': 0.006, 'percScore_25_75': 0.02, 'var_25_75': 0.003, 'max_50_100': 0.067, 'kurt_50_100': 0.295, 'max_75_125': 0.087, 'skew_75_125': 0.006, 'entropy_75_125': 0.005, 'min_75_125': 0.07}</t>
+          <t>{'mean_10_25': 0.096, 'score_at_perc_10_25': 0.008, 'std_class_10_25': 0.086, 'var_10_25': 0.151, 'mean_25_75': 0.104, 'skew_25_75': 0.006, 'percScore_25_75': 0.02, 'max_50_100': 0.068, 'kurt_50_100': 0.297, 'max_75_125': 0.087, 'skew_75_125': 0.006, 'min_75_125': 0.071}</t>
         </is>
       </c>
     </row>
@@ -522,19 +522,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="D4" t="n">
         <v>0.76</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>{'max_depth': 9, 'max_features': 0.3310578266811908, 'min_samples_leaf': 0.0011216952350073563, 'min_samples_split': 0.0013169241389381844}</t>
+          <t>{'max_depth': 71, 'max_features': 0.3042258363287708, 'min_samples_leaf': 0.00764935012301229, 'min_samples_split': 0.02214947469779137}</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>{'mean_10_25': 0.091, 'kurt_10_25': 0.037, 'skew_10_25': 0.011, 'score_at_perc_10_25': 0.016, 'coef_var_10_25': 0.017, 'min_10_25': 0.028, 'coef_var_10_50': 0.03, 'mean_25_75': 0.137, 'max_25_75': 0.028, 'var_25_75': 0.016, 'max_50_100': 0.047, 'kurt_50_100': 0.037, 'min_50_100': 0.02, 'std_class_50_100': 0.022, 'var_50_100': 0.082, 'max_75_125': 0.199, 'kurt_75_125': 0.051, 'coef_var_75_125': 0.079, 'min_75_125': 0.051}</t>
+          <t>{'var_75_125': 0.049, 'mean_10_25': 0.096, 'max_10_25': 0.021, 'score_at_perc_10_25': 0.032, 'min_10_25': 0.043, 'coef_var_10_50': 0.014, 'mean_25_75': 0.144, 'kurt_25_75': 0.005, 'var_25_75': 0.123, 'mean_50_100': 0.013, 'coef_var_50_100': 0.061, 'min_50_100': 0.062, 'var_50_100': 0.044, 'mean_75_125': 0.01, 'max_75_125': 0.273, 'std_class_75_125': 0.009}</t>
         </is>
       </c>
     </row>
@@ -548,19 +548,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.96</v>
+        <v>0.9</v>
       </c>
       <c r="D5" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>{'max_depth': 85, 'max_features': 0.7290097884088745, 'min_samples_leaf': 0.012102456894228144, 'min_samples_split': 0.030655723959578676}</t>
+          <t>{'max_depth': 14, 'max_features': 0.8018651689377677, 'min_samples_leaf': 0.041291052735906164, 'min_samples_split': 0.10266056602635926}</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>{'score_at_perc_10_25': 0.01, 'std_class_10_25': 0.036, 'mean_10_50': 0.034, 'skew_10_50': 0.016, 'coef_var_10_50': 0.101, 'min_10_50': 0.089, 'std_class_10_50': 0.078, 'min_25_75': 0.004, 'var_25_75': 0.158, 'mean_50_100': 0.003, 'max_50_100': 0.422, 'percScore_50_100': 0.007, 'mean_75_125': 0.004, 'coef_var_75_125': 0.024, 'min_75_125': 0.013}</t>
+          <t>{'var_75_125': 0.073, 'percScore_10_25': 0.007, 'score_at_perc_10_25': 0.054, 'std_class_10_25': 0.002, 'var_10_25': 0.076, 'coef_var_10_50': 0.001, 'std_class_10_50': 0.051, 'max_50_100': 0.543, 'var_50_100': 0.173, 'score_at_perc_75_125': 0.019}</t>
         </is>
       </c>
     </row>
@@ -574,19 +574,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="D6" t="n">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>{'max_depth': 39, 'max_features': 0.3222377325214995, 'min_samples_leaf': 0.007849837101912843, 'min_samples_split': 0.0015663659218625586}</t>
+          <t>{'max_depth': 19, 'max_features': 0.6949795496556272, 'min_samples_leaf': 0.015104425098274466, 'min_samples_split': 0.03258558525581169}</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>{'mean_10_25': 0.005, 'max_10_25': 0.027, 'percScore_10_25': 0.02, 'min_10_25': 0.175, 'var_10_25': 0.053, 'score_at_perc_10_50': 0.013, 'coef_var_10_50': 0.192, 'min_10_50': 0.015, 'var_10_50': 0.164, 'kurt_25_75': 0.032, 'max_50_100': 0.141, 'skew_50_100': 0.027, 'var_50_100': 0.011, 'mean_75_125': 0.053, 'max_75_125': 0.041, 'min_75_125': 0.031}</t>
+          <t>{'var_75_125': 0.078, 'mean_10_25': 0.21, 'entropy_10_25': 0.003, 'min_10_25': 0.044, 'var_10_25': 0.055, 'score_at_perc_10_50': 0.019, 'std_class_10_50': 0.074, 'std_class_25_75': 0.23, 'coef_var_50_100': 0.044, 'var_50_100': 0.031, 'kurt_75_125': 0.135, 'min_75_125': 0.064, 'std_class_75_125': 0.012}</t>
         </is>
       </c>
     </row>
@@ -600,19 +600,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="D7" t="n">
         <v>0.78</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>{'max_depth': 43, 'max_features': 0.6607943660563116, 'min_samples_leaf': 0.002176707424529658, 'min_samples_split': 0.044896302748303626}</t>
+          <t>{'max_depth': 19, 'max_features': 0.5226121598775241, 'min_samples_leaf': 0.0015111163613295182, 'min_samples_split': 0.012890890389122223}</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>{'mean_10_25': 0.17, 'coef_var_10_25': 0.047, 'var_10_25': 0.076, 'mean_10_50': 0.063, 'max_10_50': 0.03, 'skew_10_50': 0.004, 'coef_var_10_50': 0.068, 'std_class_10_50': 0.016, 'mean_25_75': 0.067, 'var_25_75': 0.032, 'max_50_100': 0.162, 'max_75_125': 0.255, 'percScore_75_125': 0.008, 'score_at_perc_75_125': 0.001}</t>
+          <t>{'mean_10_25': 0.184, 'score_at_perc_10_25': 0.043, 'std_class_10_25': 0.067, 'var_10_25': 0.085, 'entropy_10_50': 0.013, 'min_10_50': 0.048, 'mean_25_75': 0.061, 'entropy_25_75': 0.015, 'max_50_100': 0.133, 'kurt_50_100': 0.015, 'skew_50_100': 0.015, 'max_75_125': 0.298, 'kurt_75_125': 0.015, 'skew_75_125': 0.007, 'score_at_perc_75_125': 0.001}</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>{'max_depth': 84, 'max_features': 0.42966479013465686, 'min_samples_leaf': 0.009183977622377066, 'min_samples_split': 0.032829373914288244}</t>
+          <t>{'max_depth': 51, 'max_features': 0.42721573746755664, 'min_samples_leaf': 0.009303029451653257, 'min_samples_split': 0.03347649836449155}</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -652,19 +652,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>{'max_depth': 75, 'max_features': 0.49319460971482465, 'min_samples_leaf': 0.012006858430059473, 'min_samples_split': 0.05198180694003908}</t>
+          <t>{'max_depth': 31, 'max_features': 0.5641497881300503, 'min_samples_leaf': 0.001165925834043713, 'min_samples_split': 0.009752736059209684}</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>{'var_75_125': 0.044, 'mean_10_25': 0.153, 'skew_10_25': 0.003, 'score_at_perc_10_25': 0.051, 'min_10_25': 0.104, 'std_class_10_50': 0.116, 'var_10_50': 0.027, 'mean_50_100': 0.002, 'max_50_100': 0.166, 'score_at_perc_50_100': 0.002, 'min_50_100': 0.043, 'var_50_100': 0.016, 'max_75_125': 0.25, 'kurt_75_125': 0.003, 'coef_kstatvar_75_125': 0.02}</t>
+          <t>{'var_75_125': 0.07, 'mean_10_25': 0.15, 'skew_10_25': 0.011, 'score_at_perc_10_25': 0.041, 'std_class_10_25': 0.023, 'mean_10_50': 0.03, 'percScore_10_50': 0.02, 'score_at_perc_10_50': 0.008, 'coef_var_10_50': 0.071, 'coef_kstatvar_10_50': 0.021, 'std_class_10_50': 0.025, 'kurt_25_75': 0.017, 'coef_kstatvar_25_75': 0.024, 'mean_50_100': 0.022, 'max_50_100': 0.131, 'kurt_50_100': 0.011, 'skew_50_100': 0.067, 'percScore_50_100': 0.015, 'std_class_50_100': 0.009, 'max_75_125': 0.176, 'skew_75_125': 0.009, 'coef_kstatvar_75_125': 0.021, 'min_75_125': 0.025}</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>{'max_depth': 35, 'max_features': 0.6130503626816064, 'min_samples_leaf': 0.31513777072543986, 'min_samples_split': 0.335612801781949}</t>
+          <t>{'max_depth': 56, 'max_features': 0.6501899367250102, 'min_samples_leaf': 0.3168465029788855, 'min_samples_split': 0.2559487744209621}</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>{'max_depth': 26, 'max_features': 0.3489407941889707, 'min_samples_leaf': 0.04286890332221908, 'min_samples_split': 0.020146556562952}</t>
+          <t>{'max_depth': 46, 'max_features': 0.3477218633585536, 'min_samples_leaf': 0.04246451460008102, 'min_samples_split': 0.03708970496294174}</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -737,7 +737,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>{'max_depth': 60, 'max_features': 0.6086204510457317, 'min_samples_leaf': 0.2471648469205503, 'min_samples_split': 0.18876245744379264}</t>
+          <t>{'max_depth': 20, 'max_features': 0.6082305253816425, 'min_samples_leaf': 0.25673641115196644, 'min_samples_split': 0.3557417852282675}</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -756,19 +756,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="D13" t="n">
         <v>0.75</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>{'max_depth': 22, 'max_features': 0.48099104138005266, 'min_samples_leaf': 0.006329610998135303, 'min_samples_split': 0.01977970647573748}</t>
+          <t>{'max_depth': 11, 'max_features': 0.47717183254276685, 'min_samples_leaf': 0.0020773183449888585, 'min_samples_split': 0.020408861577408538}</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>{'mean_10_25': 0.144, 'mad_10_25': 0.019, 'entropy_10_25': 0.015, 'var_10_25': 0.063, 'max_10_50': 0.004, 'percScore_10_50': 0.029, 'min_10_50': 0.115, 'std_class_10_50': 0.051, 'var_10_50': 0.095, 'kurt_25_75': 0.037, 'skew_25_75': 0.004, 'entropy_25_75': 0.004, 'min_25_75': 0.021, 'var_25_75': 0.008, 'max_50_100': 0.328, 'kurt_75_125': 0.01, 'entropy_75_125': 0.003, 'score_at_perc_75_125': 0.003, 'coef_var_75_125': 0.031, 'std_class_75_125': 0.015}</t>
+          <t>{'mean_10_25': 0.145, 'mad_10_25': 0.018, 'entropy_10_25': 0.014, 'var_10_25': 0.06, 'max_10_50': 0.006, 'percScore_10_50': 0.027, 'min_10_50': 0.11, 'std_class_10_50': 0.048, 'var_10_50': 0.091, 'kurt_25_75': 0.043, 'skew_25_75': 0.004, 'entropy_25_75': 0.012, 'min_25_75': 0.02, 'var_25_75': 0.008, 'max_50_100': 0.313, 'std_class_50_100': 0.014, 'entropy_75_125': 0.011, 'score_at_perc_75_125': 0.003, 'coef_var_75_125': 0.029, 'std_class_75_125': 0.023}</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>{'max_depth': 81, 'max_features': 0.2960872305001938, 'min_samples_leaf': 0.0013105911510701215, 'min_samples_split': 0.0016933878459120411}</t>
+          <t>{'max_depth': 35, 'max_features': 0.2963468015301127, 'min_samples_leaf': 0.0013607652696346888, 'min_samples_split': 0.0017470628468934449}</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -808,19 +808,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.91</v>
+        <v>0.99</v>
       </c>
       <c r="D15" t="n">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>{'max_depth': 76, 'max_features': 0.4635420927214723, 'min_samples_leaf': 0.025886676999911283, 'min_samples_split': 0.06184032534392796}</t>
+          <t>{'max_depth': 94, 'max_features': 0.6352391826357127, 'min_samples_leaf': 0.001331691430733768, 'min_samples_split': 0.008675253772601876}</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>{'var_75_125': 0.093, 'mean_10_25': 0.086, 'percScore_10_25': 0.011, 'coef_kstatvar_10_25': 0.006, 'std_class_10_25': 0.059, 'coef_var_10_50': 0.022, 'min_10_50': 0.009, 'var_10_50': 0.203, 'kurt_25_75': 0.012, 'skew_25_75': 0.001, 'min_25_75': 0.035, 'max_50_100': 0.369, 'score_at_perc_50_100': 0.001, 'score_at_perc_75_125': 0.092}</t>
+          <t>{'var_75_125': 0.077, 'mean_10_25': 0.081, 'kurt_10_25': 0.005, 'skew_10_25': 0.011, 'percScore_10_25': 0.025, 'coef_var_10_25': 0.011, 'min_10_25': 0.072, 'std_class_10_25': 0.009, 'percScore_10_50': 0.016, 'min_10_50': 0.011, 'std_class_10_50': 0.027, 'var_10_50': 0.128, 'max_25_75': 0.011, 'percScore_25_75': 0.023, 'mean_50_100': 0.05, 'max_50_100': 0.013, 'entropy_50_100': 0.019, 'std_class_50_100': 0.018, 'max_75_125': 0.283, 'percScore_75_125': 0.02, 'entropy_75_125': 0.011, 'score_at_perc_75_125': 0.068, 'min_75_125': 0.01}</t>
         </is>
       </c>
     </row>
@@ -834,19 +834,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.76</v>
       </c>
       <c r="D16" t="n">
-        <v>0.78</v>
+        <v>0.92</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>{'max_depth': 12, 'max_features': 0.680612281512092, 'min_samples_leaf': 0.01500185279822442, 'min_samples_split': 0.03698641292606585}</t>
+          <t>{'max_depth': 68, 'max_features': 0.6776495836790564, 'min_samples_leaf': 0.17900072051241303, 'min_samples_split': 0.1947038771873656}</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>{'mean_10_25': 0.075, 'min_10_25': 0.024, 'std_class_10_25': 0.06, 'var_10_25': 0.18, 'kurt_10_50': 0.024, 'skew_10_50': 0.006, 'var_10_50': 0.193, 'skew_25_75': 0.028, 'coef_kstatvar_25_75': 0.002, 'max_50_100': 0.079, 'score_at_perc_50_100': 0.007, 'max_75_125': 0.264, 'skew_75_125': 0.016, 'entropy_75_125': 0.003, 'score_at_perc_75_125': 0.039}</t>
+          <t>{'max_50_100': 0.282, 'max_75_125': 0.718}</t>
         </is>
       </c>
     </row>

--- a/results/DT/125Hz_2classes/res_hyperopt.xlsx
+++ b/results/DT/125Hz_2classes/res_hyperopt.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>load</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -470,19 +470,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="D2" t="n">
-        <v>0.78</v>
+        <v>0.87</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>{'max_depth': 77, 'max_features': 0.5574414005139907, 'min_samples_leaf': 0.0011302943560319925, 'min_samples_split': 0.06277410612268235}</t>
+          <t>{'max_depth': 93, 'max_features': 0.5107484991060482, 'min_samples_leaf': 0.24608410097725758, 'min_samples_split': 0.4111723261150006}</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>{'mean_10_25': 0.309, 'kurt_10_25': 0.052, 'var_10_25': 0.152, 'max_10_50': 0.03, 'coef_var_10_50': 0.054, 'min_10_50': 0.051, 'max_50_100': 0.139, 'kurt_50_100': 0.185, 'skew_50_100': 0.028}</t>
+          <t>{'max_50_100': 0.489, 'max_75_125': 0.317, 'std_class_10_25': 0.194}</t>
         </is>
       </c>
     </row>
@@ -503,12 +503,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>{'max_depth': 40, 'max_features': 0.35660202996887774, 'min_samples_leaf': 0.010074538041181283, 'min_samples_split': 0.05756249399732902}</t>
+          <t>{'max_depth': 11, 'max_features': 0.36383950261392733, 'min_samples_leaf': 0.01011219330792109, 'min_samples_split': 0.054325061007286846}</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>{'mean_10_25': 0.096, 'score_at_perc_10_25': 0.008, 'std_class_10_25': 0.086, 'var_10_25': 0.151, 'mean_25_75': 0.104, 'skew_25_75': 0.006, 'percScore_25_75': 0.02, 'max_50_100': 0.068, 'kurt_50_100': 0.297, 'max_75_125': 0.087, 'skew_75_125': 0.006, 'min_75_125': 0.071}</t>
+          <t>{'kurt_50_100': 0.295, 'var_10_25': 0.15, 'mean_25_75': 0.103, 'mean_10_25': 0.095, 'max_75_125': 0.087, 'std_class_10_25': 0.086, 'min_75_125': 0.07, 'max_50_100': 0.067, 'percScore_25_75': 0.02, 'max_10_50': 0.006, 'skew_25_75': 0.006, 'skew_75_125': 0.006, 'entropy_75_125': 0.005, 'var_25_75': 0.003}</t>
         </is>
       </c>
     </row>
@@ -522,19 +522,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>{'max_depth': 71, 'max_features': 0.3042258363287708, 'min_samples_leaf': 0.00764935012301229, 'min_samples_split': 0.02214947469779137}</t>
+          <t>{'max_depth': 36, 'max_features': 0.33169447712780975, 'min_samples_leaf': 0.0025360223206920478, 'min_samples_split': 0.0010903458840297413}</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>{'var_75_125': 0.049, 'mean_10_25': 0.096, 'max_10_25': 0.021, 'score_at_perc_10_25': 0.032, 'min_10_25': 0.043, 'coef_var_10_50': 0.014, 'mean_25_75': 0.144, 'kurt_25_75': 0.005, 'var_25_75': 0.123, 'mean_50_100': 0.013, 'coef_var_50_100': 0.061, 'min_50_100': 0.062, 'var_50_100': 0.044, 'mean_75_125': 0.01, 'max_75_125': 0.273, 'std_class_75_125': 0.009}</t>
+          <t>{'max_75_125': 0.191, 'mean_25_75': 0.132, 'mean_10_25': 0.088, 'var_50_100': 0.079, 'coef_var_75_125': 0.076, 'kurt_75_125': 0.069, 'min_75_125': 0.049, 'max_50_100': 0.045, 'kurt_10_25': 0.035, 'coef_var_10_25': 0.035, 'kurt_50_100': 0.035, 'coef_var_10_50': 0.028, 'min_10_25': 0.027, 'max_25_75': 0.027, 'std_class_50_100': 0.022, 'min_50_100': 0.019, 'score_at_perc_10_25': 0.015, 'var_25_75': 0.015, 'skew_10_25': 0.011}</t>
         </is>
       </c>
     </row>
@@ -548,19 +548,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="D5" t="n">
         <v>0.79</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>{'max_depth': 14, 'max_features': 0.8018651689377677, 'min_samples_leaf': 0.041291052735906164, 'min_samples_split': 0.10266056602635926}</t>
+          <t>{'max_depth': 44, 'max_features': 0.45449087613796857, 'min_samples_leaf': 0.03517277977437174, 'min_samples_split': 0.07412348849541746}</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>{'var_75_125': 0.073, 'percScore_10_25': 0.007, 'score_at_perc_10_25': 0.054, 'std_class_10_25': 0.002, 'var_10_25': 0.076, 'coef_var_10_50': 0.001, 'std_class_10_50': 0.051, 'max_50_100': 0.543, 'var_50_100': 0.173, 'score_at_perc_75_125': 0.019}</t>
+          <t>{'max_50_100': 0.54, 'min_10_50': 0.112, 'var_25_75': 0.107, 'min_10_25': 0.08, 'var_50_100': 0.073, 'score_at_perc_10_25': 0.062, 'std_class_50_100': 0.01, 'percScore_10_25': 0.007, 'score_at_perc_75_125': 0.007, 'percScore_25_75': 0.001}</t>
         </is>
       </c>
     </row>
@@ -574,19 +574,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7</v>
+        <v>0.67</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>{'max_depth': 19, 'max_features': 0.6949795496556272, 'min_samples_leaf': 0.015104425098274466, 'min_samples_split': 0.03258558525581169}</t>
+          <t>{'max_depth': 66, 'max_features': 0.30057090722881663, 'min_samples_leaf': 0.0012059517191157325, 'min_samples_split': 0.037483293575362724}</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>{'var_75_125': 0.078, 'mean_10_25': 0.21, 'entropy_10_25': 0.003, 'min_10_25': 0.044, 'var_10_25': 0.055, 'score_at_perc_10_50': 0.019, 'std_class_10_50': 0.074, 'std_class_25_75': 0.23, 'coef_var_50_100': 0.044, 'var_50_100': 0.031, 'kurt_75_125': 0.135, 'min_75_125': 0.064, 'std_class_75_125': 0.012}</t>
+          <t>{'min_10_50': 0.192, 'coef_var_10_50': 0.188, 'max_75_125': 0.124, 'min_75_125': 0.098, 'std_class_10_25': 0.083, 'score_at_perc_10_50': 0.061, 'coef_var_75_125': 0.06, 'mean_75_125': 0.048, 'var_75_125': 0.036, 'score_at_perc_10_25': 0.031, 'kurt_75_125': 0.029, 'percScore_50_100': 0.028, 'entropy_25_75': 0.015, 'mean_10_25': 0.008}</t>
         </is>
       </c>
     </row>
@@ -600,19 +600,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>{'max_depth': 19, 'max_features': 0.5226121598775241, 'min_samples_leaf': 0.0015111163613295182, 'min_samples_split': 0.012890890389122223}</t>
+          <t>{'max_depth': 85, 'max_features': 0.9472368259329429, 'min_samples_leaf': 0.0023201065403767197, 'min_samples_split': 0.018527354681766223}</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>{'mean_10_25': 0.184, 'score_at_perc_10_25': 0.043, 'std_class_10_25': 0.067, 'var_10_25': 0.085, 'entropy_10_50': 0.013, 'min_10_50': 0.048, 'mean_25_75': 0.061, 'entropy_25_75': 0.015, 'max_50_100': 0.133, 'kurt_50_100': 0.015, 'skew_50_100': 0.015, 'max_75_125': 0.298, 'kurt_75_125': 0.015, 'skew_75_125': 0.007, 'score_at_perc_75_125': 0.001}</t>
+          <t>{'max_75_125': 0.347, 'mean_10_50': 0.148, 'mean_10_25': 0.087, 'min_10_25': 0.081, 'var_10_50': 0.063, 'max_10_25': 0.062, 'percScore_10_50': 0.056, 'max_25_75': 0.035, 'coef_var_10_50': 0.024, 'mean_50_100': 0.022, 'percScore_10_25': 0.015, 'min_10_50': 0.015, 'skew_50_100': 0.015, 'percScore_25_75': 0.014, 'percScore_75_125': 0.014, 'kurt_75_125': 0.001}</t>
         </is>
       </c>
     </row>
@@ -626,19 +626,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>{'max_depth': 51, 'max_features': 0.42721573746755664, 'min_samples_leaf': 0.009303029451653257, 'min_samples_split': 0.03347649836449155}</t>
+          <t>{'max_depth': 38, 'max_features': 0.7019472557815003, 'min_samples_leaf': 0.0016313171214221225, 'min_samples_split': 0.042875239196136006}</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>{'mean_10_25': 0.14, 'entropy_10_25': 0.026, 'coef_var_10_25': 0.065, 'var_10_25': 0.112, 'mean_10_50': 0.102, 'max_10_50': 0.016, 'min_25_75': 0.053, 'var_25_75': 0.109, 'mean_50_100': 0.04, 'skew_50_100': 0.024, 'score_at_perc_50_100': 0.011, 'min_50_100': 0.045, 'mean_75_125': 0.011, 'max_75_125': 0.195, 'min_75_125': 0.051}</t>
+          <t>{'max_75_125': 0.169, 'coef_var_75_125': 0.138, 'var_10_50': 0.129, 'var_10_25': 0.108, 'score_at_perc_75_125': 0.081, 'var_50_100': 0.076, 'percScore_10_25': 0.047, 'mean_10_25': 0.045, 'coef_var_10_25': 0.032, 'skew_50_100': 0.032, 'percScore_50_100': 0.026, 'kurt_50_100': 0.025, 'skew_25_75': 0.023, 'kurt_75_125': 0.023, 'max_25_75': 0.014, 'score_at_perc_50_100': 0.014, 'kurt_10_50': 0.012, 'kurt_25_75': 0.004}</t>
         </is>
       </c>
     </row>
@@ -652,19 +652,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="D9" t="n">
         <v>0.83</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>{'max_depth': 31, 'max_features': 0.5641497881300503, 'min_samples_leaf': 0.001165925834043713, 'min_samples_split': 0.009752736059209684}</t>
+          <t>{'max_depth': 21, 'max_features': 0.22453871415906773, 'min_samples_leaf': 0.0012985847166842887, 'min_samples_split': 0.0408376350101758}</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>{'var_75_125': 0.07, 'mean_10_25': 0.15, 'skew_10_25': 0.011, 'score_at_perc_10_25': 0.041, 'std_class_10_25': 0.023, 'mean_10_50': 0.03, 'percScore_10_50': 0.02, 'score_at_perc_10_50': 0.008, 'coef_var_10_50': 0.071, 'coef_kstatvar_10_50': 0.021, 'std_class_10_50': 0.025, 'kurt_25_75': 0.017, 'coef_kstatvar_25_75': 0.024, 'mean_50_100': 0.022, 'max_50_100': 0.131, 'kurt_50_100': 0.011, 'skew_50_100': 0.067, 'percScore_50_100': 0.015, 'std_class_50_100': 0.009, 'max_75_125': 0.176, 'skew_75_125': 0.009, 'coef_kstatvar_75_125': 0.021, 'min_75_125': 0.025}</t>
+          <t>{'min_10_25': 0.145, 'min_10_50': 0.116, 'kurt_75_125': 0.102, 'coef_var_50_100': 0.092, 'coef_var_10_25': 0.082, 'var_10_50': 0.069, 'score_at_perc_10_25': 0.061, 'percScore_75_125': 0.057, 'score_at_perc_10_50': 0.049, 'kurt_10_25': 0.038, 'std_class_25_75': 0.036, 'coef_kstatvar_75_125': 0.019, 'var_25_75': 0.018, 'coef_kstatvar_10_25': 0.017, 'var_75_125': 0.016, 'var_50_100': 0.016, 'kurt_10_50': 0.012, 'percScore_25_75': 0.012, 'mean_75_125': 0.012, 'coef_var_25_75': 0.011, 'coef_var_75_125': 0.011, 'var_10_25': 0.01}</t>
         </is>
       </c>
     </row>
@@ -678,19 +678,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.74</v>
+        <v>0.92</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>{'max_depth': 56, 'max_features': 0.6501899367250102, 'min_samples_leaf': 0.3168465029788855, 'min_samples_split': 0.2559487744209621}</t>
+          <t>{'max_depth': 63, 'max_features': 0.8834494114529107, 'min_samples_leaf': 0.027308763348729052, 'min_samples_split': 0.04891771674909072}</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>{'max_50_100': 0.407, 'max_75_125': 0.593}</t>
+          <t>{'max_75_125': 0.218, 'mean_10_25': 0.21, 'min_10_50': 0.195, 'max_50_100': 0.172, 'var_75_125': 0.07, 'mean_10_50': 0.067, 'skew_50_100': 0.024, 'mean_50_100': 0.02, 'score_at_perc_75_125': 0.018, 'skew_10_25': 0.004, 'kurt_10_25': 0.001, 'score_at_perc_10_50': 0.001}</t>
         </is>
       </c>
     </row>
@@ -711,12 +711,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>{'max_depth': 46, 'max_features': 0.3477218633585536, 'min_samples_leaf': 0.04246451460008102, 'min_samples_split': 0.03708970496294174}</t>
+          <t>{'max_depth': 30, 'max_features': 0.34118452375927094, 'min_samples_leaf': 0.042296153974065, 'min_samples_split': 0.11996198104791252}</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>{'mean_10_25': 0.075, 'min_10_25': 0.118, 'mean_10_50': 0.149, 'kurt_10_50': 0.057, 'std_class_10_50': 0.054, 'coef_kstatvar_25_75': 0.002, 'var_25_75': 0.055, 'mean_50_100': 0.015, 'max_50_100': 0.042, 'kurt_50_100': 0.136, 'max_75_125': 0.297}</t>
+          <t>{'max_75_125': 0.316, 'mean_10_50': 0.158, 'kurt_50_100': 0.145, 'min_10_25': 0.125, 'mean_10_25': 0.079, 'var_25_75': 0.059, 'std_class_10_50': 0.057, 'max_50_100': 0.044, 'percScore_50_100': 0.015, 'coef_kstatvar_25_75': 0.002}</t>
         </is>
       </c>
     </row>
@@ -737,12 +737,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>{'max_depth': 20, 'max_features': 0.6082305253816425, 'min_samples_leaf': 0.25673641115196644, 'min_samples_split': 0.3557417852282675}</t>
+          <t>{'max_depth': 15, 'max_features': 0.6086022726530825, 'min_samples_leaf': 0.3028252423001366, 'min_samples_split': 0.13241911711638066}</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>{'max_50_100': 0.225, 'max_75_125': 0.775}</t>
+          <t>{'max_75_125': 0.775, 'max_50_100': 0.225}</t>
         </is>
       </c>
     </row>
@@ -763,12 +763,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>{'max_depth': 11, 'max_features': 0.47717183254276685, 'min_samples_leaf': 0.0020773183449888585, 'min_samples_split': 0.020408861577408538}</t>
+          <t>{'max_depth': 25, 'max_features': 0.4872954270367713, 'min_samples_leaf': 0.0010294816929516323, 'min_samples_split': 0.02265259613820667}</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>{'mean_10_25': 0.145, 'mad_10_25': 0.018, 'entropy_10_25': 0.014, 'var_10_25': 0.06, 'max_10_50': 0.006, 'percScore_10_50': 0.027, 'min_10_50': 0.11, 'std_class_10_50': 0.048, 'var_10_50': 0.091, 'kurt_25_75': 0.043, 'skew_25_75': 0.004, 'entropy_25_75': 0.012, 'min_25_75': 0.02, 'var_25_75': 0.008, 'max_50_100': 0.313, 'std_class_50_100': 0.014, 'entropy_75_125': 0.011, 'score_at_perc_75_125': 0.003, 'coef_var_75_125': 0.029, 'std_class_75_125': 0.023}</t>
+          <t>{'max_50_100': 0.313, 'mean_10_25': 0.145, 'min_10_50': 0.11, 'var_10_50': 0.091, 'var_10_25': 0.06, 'std_class_10_50': 0.048, 'kurt_25_75': 0.043, 'coef_var_75_125': 0.029, 'percScore_10_50': 0.027, 'std_class_75_125': 0.023, 'min_25_75': 0.02, 'mad_10_25': 0.018, 'entropy_10_25': 0.014, 'std_class_50_100': 0.014, 'entropy_25_75': 0.012, 'entropy_75_125': 0.011, 'var_25_75': 0.008, 'max_10_50': 0.006, 'skew_25_75': 0.004, 'score_at_perc_75_125': 0.003}</t>
         </is>
       </c>
     </row>
@@ -789,12 +789,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>{'max_depth': 35, 'max_features': 0.2963468015301127, 'min_samples_leaf': 0.0013607652696346888, 'min_samples_split': 0.0017470628468934449}</t>
+          <t>{'max_depth': 67, 'max_features': 0.29610666032683397, 'min_samples_leaf': 0.0014979802911969527, 'min_samples_split': 0.0010914044876054949}</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>{'mean_10_25': 0.1, 'max_10_25': 0.013, 'percScore_10_25': 0.003, 'entropy_10_25': 0.019, 'score_at_perc_10_25': 0.017, 'coef_kstatvar_10_25': 0.014, 'min_10_25': 0.008, 'std_class_10_25': 0.054, 'var_10_25': 0.084, 'mean_10_50': 0.01, 'max_10_50': 0.009, 'skew_10_50': 0.009, 'std_class_10_50': 0.027, 'var_10_50': 0.017, 'mean_25_75': 0.067, 'kurt_25_75': 0.009, 'entropy_25_75': 0.026, 'max_50_100': 0.108, 'skew_50_100': 0.043, 'percScore_50_100': 0.009, 'score_at_perc_50_100': 0.009, 'coef_var_50_100': 0.029, 'std_class_50_100': 0.047, 'mean_75_125': 0.008, 'kurt_75_125': 0.091, 'skew_75_125': 0.03, 'percScore_75_125': 0.038, 'score_at_perc_75_125': 0.074, 'std_class_75_125': 0.029}</t>
+          <t>{'max_50_100': 0.108, 'mean_10_25': 0.1, 'kurt_75_125': 0.091, 'var_10_25': 0.084, 'score_at_perc_75_125': 0.074, 'mean_25_75': 0.067, 'std_class_10_25': 0.054, 'std_class_50_100': 0.047, 'skew_50_100': 0.043, 'percScore_75_125': 0.038, 'skew_75_125': 0.03, 'coef_var_50_100': 0.029, 'std_class_75_125': 0.029, 'std_class_10_50': 0.027, 'entropy_25_75': 0.026, 'entropy_10_25': 0.019, 'score_at_perc_10_25': 0.017, 'var_10_50': 0.017, 'coef_kstatvar_10_25': 0.014, 'max_10_25': 0.013, 'mean_10_50': 0.01, 'max_10_50': 0.009, 'skew_10_50': 0.009, 'kurt_25_75': 0.009, 'percScore_50_100': 0.009, 'score_at_perc_50_100': 0.009, 'min_10_25': 0.008, 'mean_75_125': 0.008, 'percScore_10_25': 0.003}</t>
         </is>
       </c>
     </row>
@@ -808,19 +808,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.99</v>
+        <v>0.92</v>
       </c>
       <c r="D15" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>{'max_depth': 94, 'max_features': 0.6352391826357127, 'min_samples_leaf': 0.001331691430733768, 'min_samples_split': 0.008675253772601876}</t>
+          <t>{'max_depth': 21, 'max_features': 0.46823566171904263, 'min_samples_leaf': 0.0222224164181727, 'min_samples_split': 0.046418893308526124}</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>{'var_75_125': 0.077, 'mean_10_25': 0.081, 'kurt_10_25': 0.005, 'skew_10_25': 0.011, 'percScore_10_25': 0.025, 'coef_var_10_25': 0.011, 'min_10_25': 0.072, 'std_class_10_25': 0.009, 'percScore_10_50': 0.016, 'min_10_50': 0.011, 'std_class_10_50': 0.027, 'var_10_50': 0.128, 'max_25_75': 0.011, 'percScore_25_75': 0.023, 'mean_50_100': 0.05, 'max_50_100': 0.013, 'entropy_50_100': 0.019, 'std_class_50_100': 0.018, 'max_75_125': 0.283, 'percScore_75_125': 0.02, 'entropy_75_125': 0.011, 'score_at_perc_75_125': 0.068, 'min_75_125': 0.01}</t>
+          <t>{'max_50_100': 0.345, 'var_10_50': 0.178, 'score_at_perc_75_125': 0.089, 'var_75_125': 0.087, 'mean_10_25': 0.081, 'std_class_10_25': 0.055, 'min_10_25': 0.046, 'min_25_75': 0.032, 'std_class_10_50': 0.025, 'percScore_10_25': 0.012, 'kurt_25_75': 0.012, 'max_75_125': 0.012, 'min_75_125': 0.01, 'min_10_50': 0.008, 'coef_var_10_50': 0.006, 'entropy_10_25': 0.002, 'score_at_perc_50_100': 0.001}</t>
         </is>
       </c>
     </row>
@@ -834,19 +834,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
       <c r="D16" t="n">
         <v>0.92</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>{'max_depth': 68, 'max_features': 0.6776495836790564, 'min_samples_leaf': 0.17900072051241303, 'min_samples_split': 0.1947038771873656}</t>
+          <t>{'max_depth': 11, 'max_features': 0.43556081170970606, 'min_samples_leaf': 0.08503190682127043, 'min_samples_split': 0.45626170895602924}</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>{'max_50_100': 0.282, 'max_75_125': 0.718}</t>
+          <t>{'max_75_125': 0.424, 'max_50_100': 0.29, 'mean_10_25': 0.286}</t>
         </is>
       </c>
     </row>
